--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -48,7 +42,28 @@
     <t xml:space="preserve"> 01.10.2019</t>
   </si>
   <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>Нач-ны пени за просрочку оплаты на 364 д. (с 29.09.2018 по 01.10.2019) 1518,75 х 0,1% х 324дн = 492,08</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -56,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +111,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -132,26 +162,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -160,10 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -173,29 +211,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +229,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,293 +553,259 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43036</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1100</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>600</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43372</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1265</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>C4-C2</f>
         <v>165</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4.5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>D4*E4</f>
         <v>742.5</v>
       </c>
+      <c r="G4" s="7">
+        <v>968.1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>968.1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>696</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>C5-C3</f>
         <v>96</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2.35</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>D5*E5</f>
         <v>225.60000000000002</v>
       </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1518.75</v>
       </c>
+      <c r="G6" s="7">
+        <v>1518.75</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1518.75</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="16">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(G4:G7)</f>
+        <v>2486.85</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUM(H4:H7)</f>
+        <v>2486.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>43739</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14">
+        <v>492.08</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(G8,G9)</f>
+        <v>2978.93</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(H8,H9)</f>
+        <v>2486.85</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f>SUM(H10,-G10)</f>
+        <v>-492.07999999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -54,9 +54,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>Нач-ны пени за просрочку оплаты на 364 д. (с 29.09.2018 по 01.10.2019) 1518,75 х 0,1% х 324дн = 492,08</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,7 +236,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -245,6 +244,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +564,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,40 +731,48 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+    <row r="8" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43739</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(G4:G7)</f>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>492.08</v>
+      </c>
+      <c r="G8" s="13">
+        <v>492.08</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM(G2:G8)</f>
+        <v>2978.93</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUM(H2:H8)</f>
         <v>2486.85</v>
-      </c>
-      <c r="H8" s="7">
-        <f>SUM(H4:H7)</f>
-        <v>2486.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>43739</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14">
-        <v>492.08</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,43 +784,31 @@
       <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7">
-        <f>SUM(G8,G9)</f>
-        <v>2978.93</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7">
-        <f>SUM(H8,H9)</f>
-        <v>2486.85</v>
+        <f>SUM(H9,-G9)</f>
+        <v>-492.07999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <f>SUM(H10,-G10)</f>
-        <v>-492.07999999999993</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -57,13 +57,10 @@
     <t>Нач-ны пени за просрочку оплаты на 364 д. (с 29.09.2018 по 01.10.2019) 1518,75 х 0,1% х 324дн = 492,08</t>
   </si>
   <si>
-    <t>итого с пенями</t>
-  </si>
-  <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>Т</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -236,6 +233,15 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -244,15 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -707,7 +704,7 @@
         <v>1518.75</v>
       </c>
       <c r="G6" s="7">
-        <v>1518.75</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>1518.75</v>
@@ -735,16 +732,16 @@
       <c r="A8" s="12">
         <v>43739</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
       <c r="F8" s="13">
@@ -758,57 +755,96 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
+      <c r="A9" s="3">
+        <v>44096</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1715</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUM(C9,-C4)</f>
+        <v>450</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="5">
+        <f>PRODUCT(D9,E9)</f>
+        <v>2119.5</v>
       </c>
       <c r="G9" s="7">
-        <f>SUM(G2:G8)</f>
-        <v>2978.93</v>
+        <f>SUM(F9,F10)</f>
+        <v>2955.9</v>
       </c>
       <c r="H9" s="7">
-        <f>SUM(H2:H8)</f>
-        <v>2486.85</v>
+        <v>1362.57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1024</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(C10,-C5)</f>
+        <v>328</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f>PRODUCT(D10,E10)</f>
+        <v>836.4</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <f>SUM(H9,-G9)</f>
-        <v>-492.07999999999993</v>
-      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(G2:G10)</f>
+        <v>4416.08</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H2:H10)</f>
+        <v>3849.42</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <f>SUM(H11,-G11)</f>
+        <v>-566.65999999999985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -558,10 +558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H6:H9"/>
+      <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,45 +806,96 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
+      <c r="A11" s="3">
+        <v>44124</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(C11,-C6)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="5">
+        <f>PRODUCT(D11,E11)</f>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f>SUM(G2:G10)</f>
-        <v>4416.08</v>
+        <f>SUM(F11,F12)</f>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <f>SUM(H2:H10)</f>
-        <v>3849.42</v>
+        <v>74.58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(C12,-C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <f>PRODUCT(D12,E12)</f>
+        <v>0</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7">
-        <f>SUM(H11,-G11)</f>
-        <v>-566.65999999999985</v>
-      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7">
+        <f>SUM(G2:G12)</f>
+        <v>4416.08</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(H2:H12)</f>
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f>SUM(H13,-G13)</f>
+        <v>-492.07999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,22 +541,53 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1766</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>51</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>240.21</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>303.95999999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <v>303.95999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1049</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>63.749999999999993</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
     </row>

--- a/sputnik/personal/ee/149ee.xlsx
+++ b/sputnik/personal/ee/149ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,22 +592,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44466</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1854</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>88</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>436.48</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>538.32000000000005</v>
+      </c>
+      <c r="H8" s="8">
+        <v>537.91999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1087</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="5"/>
+        <v>101.84</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
     </row>
